--- a/実験結果.xlsx
+++ b/実験結果.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yudai\Desktop\KGU\3年生春学期\音楽情報処理\音楽情報処理第11回\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175498A7-D7DA-4685-A27E-8E3E5A20BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F28A18-0149-44DF-BE94-938200C2FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{198DF903-18D2-42A6-B8BC-EA3168F847D5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{198DF903-18D2-42A6-B8BC-EA3168F847D5}"/>
   </bookViews>
   <sheets>
     <sheet name="実験結果" sheetId="1" r:id="rId1"/>
+    <sheet name="クラスタ数変更" sheetId="2" r:id="rId2"/>
+    <sheet name="データ変更" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>試行回数</t>
     <rPh sb="0" eb="4">
@@ -86,6 +88,13 @@
     <t>SGDアルゴリズム</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>クラスタ数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -408,13 +417,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +548,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,7 +560,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2406D871-FF47-46B5-913C-684DEACAD92A}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -825,12 +922,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
@@ -906,7 +1003,7 @@
       <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>1.86428427693948E-17</v>
       </c>
       <c r="D9" s="8">
@@ -935,12 +1032,12 @@
     </row>
     <row r="12" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
@@ -1051,4 +1148,380 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF78B56-B787-43BF-8EEC-3BAC8F84AFEC}">
+  <dimension ref="B1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="5" width="26.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1.44690720001273E-17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.2232428919209397</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.5870364452399799</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2.0590602461719599E-17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.4308664204185799</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.7346945097778699</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1.1964809538566801E-16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.2709061649732796</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.4879216239857702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1.94219466463247E-16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.3479969553239997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.3362870414702201</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="15">
+        <v>6</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2.0034099692484E-16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.7486200831715601</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.0922208040855499</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="15">
+        <v>7</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1.99227991386368E-16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.7710831373329499</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.0378015542605099</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="15">
+        <v>8</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2.1397531477111399E-16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.8874455456265502</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.0560784385980102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="15">
+        <v>9</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2.0534952184796099E-16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.5311630228647202</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.9535749274682299</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1.8364591384777E-16</v>
+      </c>
+      <c r="D12" s="30">
+        <v>3.4513206706324699</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1.9259431298543701</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B39D59-6A68-4E91-94C6-5EE7D154E59C}">
+  <dimension ref="B1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
+        <v>6.0658801846687698E-17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.4616623005779998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.6178383595065</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2.1258405784802399E-16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.3734364002997399</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.6114319356571301</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1.6138580307834301E-16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.6097327244801201</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.5941363152383199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2.5265225723299199E-16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.0653853012122299</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.4995629185977699</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="35">
+        <v>2.7825138461783301E-16</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.22776945558235</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.53453740057064</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>